--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H2">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J2">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.426834393384955</v>
+        <v>0.960636</v>
       </c>
       <c r="N2">
-        <v>0.426834393384955</v>
+        <v>2.881908</v>
       </c>
       <c r="O2">
-        <v>0.1239541586445105</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="P2">
-        <v>0.1239541586445105</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="Q2">
-        <v>31.74590835826536</v>
+        <v>81.43168973723598</v>
       </c>
       <c r="R2">
-        <v>31.74590835826536</v>
+        <v>732.8852076351239</v>
       </c>
       <c r="S2">
-        <v>0.02894688902841321</v>
+        <v>0.0546321233454918</v>
       </c>
       <c r="T2">
-        <v>0.02894688902841321</v>
+        <v>0.05463212334549182</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>74.37523510349889</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H3">
-        <v>74.37523510349889</v>
+        <v>254.305553</v>
       </c>
       <c r="I3">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J3">
-        <v>0.2335289864007734</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.01665147310443</v>
+        <v>0.5285266666666667</v>
       </c>
       <c r="N3">
-        <v>3.01665147310443</v>
+        <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.8760458413554895</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="P3">
-        <v>0.8760458413554895</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="Q3">
-        <v>224.3641625374582</v>
+        <v>44.80242208063778</v>
       </c>
       <c r="R3">
-        <v>224.3641625374582</v>
+        <v>403.22179872574</v>
       </c>
       <c r="S3">
-        <v>0.2045820973723602</v>
+        <v>0.03005772638618058</v>
       </c>
       <c r="T3">
-        <v>0.2045820973723602</v>
+        <v>0.03005772638618058</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>133.214133982591</v>
+        <v>84.76851766666665</v>
       </c>
       <c r="H4">
-        <v>133.214133982591</v>
+        <v>254.305553</v>
       </c>
       <c r="I4">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="J4">
-        <v>0.4182758096820832</v>
+        <v>0.2571740874301185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.426834393384955</v>
+        <v>3.032914666666667</v>
       </c>
       <c r="N4">
-        <v>0.426834393384955</v>
+        <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.1239541586445105</v>
+        <v>0.6706905793738452</v>
       </c>
       <c r="P4">
-        <v>0.1239541586445105</v>
+        <v>0.6706905793738454</v>
       </c>
       <c r="Q4">
-        <v>56.86037406876135</v>
+        <v>257.0956805028258</v>
       </c>
       <c r="R4">
-        <v>56.86037406876135</v>
+        <v>2313.861124525432</v>
       </c>
       <c r="S4">
-        <v>0.05184702607049403</v>
+        <v>0.1724842376984461</v>
       </c>
       <c r="T4">
-        <v>0.05184702607049403</v>
+        <v>0.1724842376984462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>133.214133982591</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H5">
-        <v>133.214133982591</v>
+        <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J5">
-        <v>0.4182758096820832</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.01665147310443</v>
+        <v>0.960636</v>
       </c>
       <c r="N5">
-        <v>3.01665147310443</v>
+        <v>2.881908</v>
       </c>
       <c r="O5">
-        <v>0.8760458413554895</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="P5">
-        <v>0.8760458413554895</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="Q5">
-        <v>401.860613516914</v>
+        <v>128.42072800496</v>
       </c>
       <c r="R5">
-        <v>401.860613516914</v>
+        <v>1155.78655204464</v>
       </c>
       <c r="S5">
-        <v>0.3664287836115892</v>
+        <v>0.08615683986324912</v>
       </c>
       <c r="T5">
-        <v>0.3664287836115892</v>
+        <v>0.08615683986324914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>110.894585517554</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H6">
-        <v>110.894585517554</v>
+        <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J6">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.426834393384955</v>
+        <v>0.5285266666666667</v>
       </c>
       <c r="N6">
-        <v>0.426834393384955</v>
+        <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.1239541586445105</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="P6">
-        <v>0.1239541586445105</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="Q6">
-        <v>47.33362313906118</v>
+        <v>70.65504447404446</v>
       </c>
       <c r="R6">
-        <v>47.33362313906118</v>
+        <v>635.8954002664</v>
       </c>
       <c r="S6">
-        <v>0.04316024354560327</v>
+        <v>0.04740212461687553</v>
       </c>
       <c r="T6">
-        <v>0.04316024354560327</v>
+        <v>0.04740212461687554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>110.894585517554</v>
+        <v>133.6830266666667</v>
       </c>
       <c r="H7">
-        <v>110.894585517554</v>
+        <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="J7">
-        <v>0.3481952039171433</v>
+        <v>0.4055728628296552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.01665147310443</v>
+        <v>3.032914666666667</v>
       </c>
       <c r="N7">
-        <v>3.01665147310443</v>
+        <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.8760458413554895</v>
+        <v>0.6706905793738452</v>
       </c>
       <c r="P7">
-        <v>0.8760458413554895</v>
+        <v>0.6706905793738454</v>
       </c>
       <c r="Q7">
-        <v>334.5303147608345</v>
+        <v>405.4492122617245</v>
       </c>
       <c r="R7">
-        <v>334.5303147608345</v>
+        <v>3649.04291035552</v>
       </c>
       <c r="S7">
-        <v>0.30503496037154</v>
+        <v>0.2720138983495305</v>
       </c>
       <c r="T7">
-        <v>0.30503496037154</v>
+        <v>0.2720138983495305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>111.16377</v>
+      </c>
+      <c r="H8">
+        <v>333.49131</v>
+      </c>
+      <c r="I8">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J8">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.960636</v>
+      </c>
+      <c r="N8">
+        <v>2.881908</v>
+      </c>
+      <c r="O8">
+        <v>0.2124324572954377</v>
+      </c>
+      <c r="P8">
+        <v>0.2124324572954377</v>
+      </c>
+      <c r="Q8">
+        <v>106.78791935772</v>
+      </c>
+      <c r="R8">
+        <v>961.0912742194801</v>
+      </c>
+      <c r="S8">
+        <v>0.07164349408669674</v>
+      </c>
+      <c r="T8">
+        <v>0.07164349408669676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>111.16377</v>
+      </c>
+      <c r="H9">
+        <v>333.49131</v>
+      </c>
+      <c r="I9">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J9">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5285266666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.58558</v>
+      </c>
+      <c r="O9">
+        <v>0.116876963330717</v>
+      </c>
+      <c r="P9">
+        <v>0.116876963330717</v>
+      </c>
+      <c r="Q9">
+        <v>58.7530168122</v>
+      </c>
+      <c r="R9">
+        <v>528.7771513098</v>
+      </c>
+      <c r="S9">
+        <v>0.03941711232766092</v>
+      </c>
+      <c r="T9">
+        <v>0.03941711232766092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>111.16377</v>
+      </c>
+      <c r="H10">
+        <v>333.49131</v>
+      </c>
+      <c r="I10">
+        <v>0.3372530497402263</v>
+      </c>
+      <c r="J10">
+        <v>0.3372530497402264</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.032914666666667</v>
+      </c>
+      <c r="N10">
+        <v>9.098744</v>
+      </c>
+      <c r="O10">
+        <v>0.6706905793738452</v>
+      </c>
+      <c r="P10">
+        <v>0.6706905793738454</v>
+      </c>
+      <c r="Q10">
+        <v>337.15022843496</v>
+      </c>
+      <c r="R10">
+        <v>3034.35205591464</v>
+      </c>
+      <c r="S10">
+        <v>0.2261924433258686</v>
+      </c>
+      <c r="T10">
+        <v>0.2261924433258687</v>
       </c>
     </row>
   </sheetData>
